--- a/process control chart.xlsx
+++ b/process control chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\eclipse-workspace\Milestone1Lasco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\eclipse-workspace\Deliverable1_Lasco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20392C65-14A5-4D71-9AC3-D91AFD107FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233CC55-88AE-401A-AEF0-E3284A7AF842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Dates</t>
   </si>
@@ -38,12 +39,66 @@
     <t>#Fixed tickets</t>
   </si>
   <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
     <t>2010-12</t>
   </si>
   <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>2011-02</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
     <t>2011-06</t>
   </si>
   <si>
+    <t>2011-07</t>
+  </si>
+  <si>
     <t>2011-08</t>
   </si>
   <si>
@@ -83,6 +138,9 @@
     <t>2012-08</t>
   </si>
   <si>
+    <t>2012-09</t>
+  </si>
+  <si>
     <t>2012-10</t>
   </si>
   <si>
@@ -137,6 +195,9 @@
     <t>2014-03</t>
   </si>
   <si>
+    <t>2014-04</t>
+  </si>
+  <si>
     <t>2014-05</t>
   </si>
   <si>
@@ -146,6 +207,9 @@
     <t>2014-07</t>
   </si>
   <si>
+    <t>2014-08</t>
+  </si>
+  <si>
     <t>2014-09</t>
   </si>
   <si>
@@ -161,6 +225,9 @@
     <t>2015-01</t>
   </si>
   <si>
+    <t>2015-02</t>
+  </si>
+  <si>
     <t>2015-03</t>
   </si>
   <si>
@@ -170,6 +237,9 @@
     <t>2015-05</t>
   </si>
   <si>
+    <t>2015-06</t>
+  </si>
+  <si>
     <t>2015-07</t>
   </si>
   <si>
@@ -179,6 +249,9 @@
     <t>2015-09</t>
   </si>
   <si>
+    <t>2015-10</t>
+  </si>
+  <si>
     <t>2015-11</t>
   </si>
   <si>
@@ -188,18 +261,36 @@
     <t>2016-01</t>
   </si>
   <si>
+    <t>2016-02</t>
+  </si>
+  <si>
     <t>2016-03</t>
   </si>
   <si>
     <t>2016-04</t>
   </si>
   <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
     <t>2016-07</t>
   </si>
   <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
     <t>2016-10</t>
   </si>
   <si>
+    <t>2016-11</t>
+  </si>
+  <si>
     <t>2016-12</t>
   </si>
   <si>
@@ -209,12 +300,21 @@
     <t>2017-02</t>
   </si>
   <si>
+    <t>2017-03</t>
+  </si>
+  <si>
     <t>2017-04</t>
   </si>
   <si>
+    <t>2017-05</t>
+  </si>
+  <si>
     <t>2017-06</t>
   </si>
   <si>
+    <t>2017-07</t>
+  </si>
+  <si>
     <t>2017-08</t>
   </si>
   <si>
@@ -224,15 +324,60 @@
     <t>2017-10</t>
   </si>
   <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
     <t>2018-01</t>
   </si>
   <si>
+    <t>2018-02</t>
+  </si>
+  <si>
     <t>2018-03</t>
   </si>
   <si>
+    <t>2018-04</t>
+  </si>
+  <si>
     <t>2018-05</t>
   </si>
   <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
     <t>2019-05</t>
   </si>
   <si>
@@ -248,13 +393,31 @@
     <t>2019-09</t>
   </si>
   <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Mean + 3*Stddev</t>
-  </si>
-  <si>
-    <t>Mean - 3*Stddev</t>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
   </si>
 </sst>
 </file>
@@ -740,10 +903,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="18"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="22"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="30"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="18"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -816,19 +979,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4022038567493114E-2"/>
-          <c:y val="6.1836105976586578E-2"/>
-          <c:w val="0.94375544999023886"/>
-          <c:h val="0.80686295913565331"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -847,7 +1000,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -858,439 +1011,2083 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1834404B-0827-4695-8385-E670AA825FDC}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME CATEGORIA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{2F43AAB0-AE1A-4C08-9C44-DBDBC1B63B49}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALORE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000007B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000041-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000049-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000046-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000048-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="70"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000047-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="71"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000043-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="72"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000044-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="73"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000042-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="74"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="75"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="77"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000051-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="78"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="79"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000045-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="80"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="81"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000050-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="82"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000063-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="83"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="84"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000061-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="85"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000064-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="86"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000062-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="87"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000060-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="89"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="90"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="91"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000052-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="92"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000069-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="93"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000066-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="94"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000065-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="97"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000053-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="98"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="99"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000067-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="101"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000068-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="102"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000059-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="103"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000058-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="104"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000057-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="105"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000056-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="106"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000055-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="107"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000054-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="108"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006F-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="109"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006E-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="110"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006D-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="111"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006C-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="112"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000006B-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="113"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000079-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="114"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000078-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="115"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000007A-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="116"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000073-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="117"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000071-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="118"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000077-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="119"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000076-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="120"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000075-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="121"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000074-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="122"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000072-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="123"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000070-BA2D-4638-A02D-09632BDAAAE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>result!$A$2:$A$71</c:f>
+              <c:f>result!$A$2:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
+                  <c:v>2009-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010-02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010-03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010-06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010-08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010-09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2010-12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
+                  <c:v>2011-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011-02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011-03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011-04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011-05</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2011-06</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2011-08</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>2011-09</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
                   <c:v>2011-10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="23">
                   <c:v>2011-11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="24">
                   <c:v>2011-12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
                   <c:v>2012-01</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>2012-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="27">
                   <c:v>2012-03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
                   <c:v>2012-04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
                   <c:v>2012-05</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
                   <c:v>2012-06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
                   <c:v>2012-07</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="32">
                   <c:v>2012-08</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2012-10</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>2012-11</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>2012-12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
                   <c:v>2013-01</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>2013-02</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>2013-03</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="40">
                   <c:v>2013-04</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>2013-05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>2013-06</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>2013-07</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>2013-08</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>2013-09</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>2013-10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>2013-11</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>2013-12</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>2014-01</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>2014-02</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>2014-03</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>2014-04</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2014-05</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="54">
                   <c:v>2014-06</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="55">
                   <c:v>2014-07</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="56">
+                  <c:v>2014-08</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2014-09</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="58">
                   <c:v>2014-10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>2014-11</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="60">
                   <c:v>2014-12</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="61">
                   <c:v>2015-01</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="62">
+                  <c:v>2015-02</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2015-03</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="64">
                   <c:v>2015-04</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="65">
                   <c:v>2015-05</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="66">
+                  <c:v>2015-06</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2015-07</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="68">
                   <c:v>2015-08</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="69">
                   <c:v>2015-09</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="70">
+                  <c:v>2015-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2015-11</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="72">
                   <c:v>2015-12</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="73">
                   <c:v>2016-01</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="74">
+                  <c:v>2016-02</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2016-03</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="76">
                   <c:v>2016-04</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="77">
+                  <c:v>2016-05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2016-06</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2016-07</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="80">
+                  <c:v>2016-08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2016-09</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2016-10</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="83">
+                  <c:v>2016-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2016-12</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="85">
                   <c:v>2017-01</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="86">
                   <c:v>2017-02</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="87">
+                  <c:v>2017-03</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2017-04</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="89">
+                  <c:v>2017-05</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2017-06</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="91">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2017-08</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="93">
                   <c:v>2017-09</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="94">
                   <c:v>2017-10</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="95">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2018-01</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="98">
+                  <c:v>2018-02</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2018-03</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="100">
+                  <c:v>2018-04</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2018-05</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="102">
+                  <c:v>2018-06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018-08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018-09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>2019-05</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="114">
                   <c:v>2019-06</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="115">
                   <c:v>2019-07</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="116">
                   <c:v>2019-08</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="117">
                   <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$B$2:$B$71</c:f>
+              <c:f>result!$B$2:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="40">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="54">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +3095,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4217-4739-80D7-78922F022DE6}"/>
+              <c16:uniqueId val="{00000000-CDAF-4C80-9C68-4ABBAD56ED70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1317,7 +3114,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1330,437 +3127,761 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>result!$A$2:$A$71</c:f>
+              <c:f>result!$A$2:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
+                  <c:v>2009-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010-02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010-03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010-06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010-08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010-09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2010-12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
+                  <c:v>2011-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011-02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011-03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011-04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011-05</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2011-06</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2011-08</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>2011-09</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
                   <c:v>2011-10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="23">
                   <c:v>2011-11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="24">
                   <c:v>2011-12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
                   <c:v>2012-01</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>2012-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="27">
                   <c:v>2012-03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
                   <c:v>2012-04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
                   <c:v>2012-05</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
                   <c:v>2012-06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
                   <c:v>2012-07</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="32">
                   <c:v>2012-08</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2012-10</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>2012-11</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>2012-12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
                   <c:v>2013-01</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>2013-02</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>2013-03</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="40">
                   <c:v>2013-04</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>2013-05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>2013-06</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>2013-07</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>2013-08</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>2013-09</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>2013-10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>2013-11</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>2013-12</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>2014-01</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>2014-02</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>2014-03</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>2014-04</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2014-05</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="54">
                   <c:v>2014-06</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="55">
                   <c:v>2014-07</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="56">
+                  <c:v>2014-08</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2014-09</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="58">
                   <c:v>2014-10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>2014-11</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="60">
                   <c:v>2014-12</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="61">
                   <c:v>2015-01</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="62">
+                  <c:v>2015-02</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2015-03</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="64">
                   <c:v>2015-04</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="65">
                   <c:v>2015-05</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="66">
+                  <c:v>2015-06</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2015-07</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="68">
                   <c:v>2015-08</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="69">
                   <c:v>2015-09</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="70">
+                  <c:v>2015-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2015-11</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="72">
                   <c:v>2015-12</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="73">
                   <c:v>2016-01</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="74">
+                  <c:v>2016-02</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2016-03</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="76">
                   <c:v>2016-04</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="77">
+                  <c:v>2016-05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2016-06</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2016-07</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="80">
+                  <c:v>2016-08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2016-09</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2016-10</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="83">
+                  <c:v>2016-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2016-12</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="85">
                   <c:v>2017-01</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="86">
                   <c:v>2017-02</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="87">
+                  <c:v>2017-03</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2017-04</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="89">
+                  <c:v>2017-05</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2017-06</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="91">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2017-08</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="93">
                   <c:v>2017-09</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="94">
                   <c:v>2017-10</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="95">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2018-01</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="98">
+                  <c:v>2018-02</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2018-03</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="100">
+                  <c:v>2018-04</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2018-05</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="102">
+                  <c:v>2018-06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018-08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018-09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>2019-05</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="114">
                   <c:v>2019-06</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="115">
                   <c:v>2019-07</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="116">
                   <c:v>2019-08</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="117">
                   <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$C$2:$C$71</c:f>
+              <c:f>result!$C$2:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.5571428571428596</c:v>
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.1370967741935485</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.1370967741935485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,7 +3889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4217-4739-80D7-78922F022DE6}"/>
+              <c16:uniqueId val="{00000001-CDAF-4C80-9C68-4ABBAD56ED70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1781,13 +3902,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean + 3*Stddev</c:v>
+                  <c:v>Upper Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1800,437 +3921,761 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>result!$A$2:$A$71</c:f>
+              <c:f>result!$A$2:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
+                  <c:v>2009-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010-02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010-03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010-06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010-08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010-09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2010-12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
+                  <c:v>2011-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011-02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011-03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011-04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011-05</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2011-06</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2011-08</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>2011-09</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
                   <c:v>2011-10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="23">
                   <c:v>2011-11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="24">
                   <c:v>2011-12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
                   <c:v>2012-01</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>2012-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="27">
                   <c:v>2012-03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
                   <c:v>2012-04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
                   <c:v>2012-05</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
                   <c:v>2012-06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
                   <c:v>2012-07</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="32">
                   <c:v>2012-08</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2012-10</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>2012-11</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>2012-12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
                   <c:v>2013-01</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>2013-02</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>2013-03</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="40">
                   <c:v>2013-04</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>2013-05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>2013-06</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>2013-07</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>2013-08</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>2013-09</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>2013-10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>2013-11</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>2013-12</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>2014-01</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>2014-02</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>2014-03</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>2014-04</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2014-05</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="54">
                   <c:v>2014-06</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="55">
                   <c:v>2014-07</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="56">
+                  <c:v>2014-08</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2014-09</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="58">
                   <c:v>2014-10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>2014-11</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="60">
                   <c:v>2014-12</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="61">
                   <c:v>2015-01</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="62">
+                  <c:v>2015-02</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2015-03</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="64">
                   <c:v>2015-04</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="65">
                   <c:v>2015-05</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="66">
+                  <c:v>2015-06</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2015-07</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="68">
                   <c:v>2015-08</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="69">
                   <c:v>2015-09</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="70">
+                  <c:v>2015-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2015-11</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="72">
                   <c:v>2015-12</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="73">
                   <c:v>2016-01</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="74">
+                  <c:v>2016-02</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2016-03</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="76">
                   <c:v>2016-04</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="77">
+                  <c:v>2016-05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2016-06</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2016-07</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="80">
+                  <c:v>2016-08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2016-09</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2016-10</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="83">
+                  <c:v>2016-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2016-12</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="85">
                   <c:v>2017-01</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="86">
                   <c:v>2017-02</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="87">
+                  <c:v>2017-03</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2017-04</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="89">
+                  <c:v>2017-05</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2017-06</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="91">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2017-08</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="93">
                   <c:v>2017-09</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="94">
                   <c:v>2017-10</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="95">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2018-01</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="98">
+                  <c:v>2018-02</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2018-03</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="100">
+                  <c:v>2018-04</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2018-05</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="102">
+                  <c:v>2018-06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018-08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018-09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>2019-05</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="114">
                   <c:v>2019-06</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="115">
                   <c:v>2019-07</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="116">
                   <c:v>2019-08</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="117">
                   <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$D$2:$D$71</c:f>
+              <c:f>result!$D$2:$D$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20.045240349363819</c:v>
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16.79851482053774</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16.79851482053774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +4683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4217-4739-80D7-78922F022DE6}"/>
+              <c16:uniqueId val="{00000002-CDAF-4C80-9C68-4ABBAD56ED70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2251,13 +4696,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean - 3*Stddev</c:v>
+                  <c:v>Lower Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2270,437 +4715,761 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>result!$A$2:$A$71</c:f>
+              <c:f>result!$A$2:$A$125</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
+                  <c:v>2009-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010-02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010-03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010-06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010-08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010-09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2010-12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
+                  <c:v>2011-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011-02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011-03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011-04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011-05</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2011-06</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2011-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2011-08</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>2011-09</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
                   <c:v>2011-10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="23">
                   <c:v>2011-11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="24">
                   <c:v>2011-12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
                   <c:v>2012-01</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>2012-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="27">
                   <c:v>2012-03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
                   <c:v>2012-04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
                   <c:v>2012-05</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
                   <c:v>2012-06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
                   <c:v>2012-07</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="32">
                   <c:v>2012-08</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>2012-09</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2012-10</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="35">
                   <c:v>2012-11</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>2012-12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
                   <c:v>2013-01</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>2013-02</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>2013-03</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="40">
                   <c:v>2013-04</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>2013-05</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>2013-06</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>2013-07</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>2013-08</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>2013-09</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>2013-10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>2013-11</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>2013-12</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>2014-01</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>2014-02</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>2014-03</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>2014-04</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2014-05</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="54">
                   <c:v>2014-06</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="55">
                   <c:v>2014-07</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="56">
+                  <c:v>2014-08</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2014-09</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="58">
                   <c:v>2014-10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>2014-11</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="60">
                   <c:v>2014-12</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="61">
                   <c:v>2015-01</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="62">
+                  <c:v>2015-02</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2015-03</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="64">
                   <c:v>2015-04</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="65">
                   <c:v>2015-05</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="66">
+                  <c:v>2015-06</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2015-07</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="68">
                   <c:v>2015-08</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="69">
                   <c:v>2015-09</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="70">
+                  <c:v>2015-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2015-11</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="72">
                   <c:v>2015-12</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="73">
                   <c:v>2016-01</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="74">
+                  <c:v>2016-02</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2016-03</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="76">
                   <c:v>2016-04</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="77">
+                  <c:v>2016-05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2016-06</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2016-07</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="80">
+                  <c:v>2016-08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2016-09</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2016-10</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="83">
+                  <c:v>2016-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2016-12</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="85">
                   <c:v>2017-01</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="86">
                   <c:v>2017-02</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="87">
+                  <c:v>2017-03</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2017-04</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="89">
+                  <c:v>2017-05</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2017-06</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="91">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2017-08</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="93">
                   <c:v>2017-09</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="94">
                   <c:v>2017-10</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="95">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2018-01</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="98">
+                  <c:v>2018-02</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2018-03</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="100">
+                  <c:v>2018-04</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2018-05</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="102">
+                  <c:v>2018-06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018-08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018-09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>2019-05</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="114">
                   <c:v>2019-06</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="115">
                   <c:v>2019-07</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="116">
                   <c:v>2019-08</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="117">
                   <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$E$2:$E$71</c:f>
+              <c:f>result!$E$2:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.9309546350781055</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,7 +5477,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4217-4739-80D7-78922F022DE6}"/>
+              <c16:uniqueId val="{00000003-CDAF-4C80-9C68-4ABBAD56ED70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2720,72 +5489,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="475140752"/>
-        <c:axId val="475141080"/>
+        <c:axId val="595042240"/>
+        <c:axId val="595043880"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="475140752"/>
+      <c:catAx>
+        <c:axId val="595042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Dates</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2794,7 +5523,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2804,13 +5533,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2823,88 +5552,20 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475141080"/>
+        <c:crossAx val="595043880"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="475141080"/>
+        <c:axId val="595043880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>#Fixed tickets</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2921,9 +5582,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2936,10 +5597,33 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475140752"/>
+        <c:crossAx val="595042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2947,7 +5631,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2961,11 +5665,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3033,25 +5737,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3059,7 +5763,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3068,38 +5795,15 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3133,46 +5837,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3184,33 +5902,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3226,21 +5945,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3255,13 +5972,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3274,14 +5991,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3293,17 +6011,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3312,31 +6029,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3345,17 +6055,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3364,17 +6073,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3383,17 +6091,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3402,27 +6109,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3430,11 +6152,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3442,17 +6175,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3461,12 +6194,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3475,14 +6208,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3491,7 +6223,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3511,9 +6243,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3524,26 +6256,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3552,23 +6278,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E05CADC-C414-487F-A505-40E15F039B21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEAF853-4B1D-490E-BB6B-AB13A5A00DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3886,33 +6612,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>74</v>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,19 +6648,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2:B71)</f>
-        <v>5.5571428571428569</v>
+        <f>AVERAGE($B$2:$B$125)</f>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D2">
-        <f>C2+3*STDEV($B2:$B71)</f>
-        <v>20.045240349363819</v>
+        <f>$C2+3*STDEV($B$2:$B$125)</f>
+        <v>16.79851482053774</v>
       </c>
       <c r="E2">
-        <f>C2-3*STDEV($B2:$B71)</f>
-        <v>-8.9309546350781055</v>
+        <f>MAX(0, $C2-3*STDEV($B$2:$B$125))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3940,16 +6668,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.5571428571428569</v>
+        <f t="shared" ref="C3:C66" si="0">AVERAGE($B$2:$B$125)</f>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D3">
-        <v>20.045240349363819</v>
+        <f>$C3+3*STDEV($B$2:$B$125)</f>
+        <v>16.79851482053774</v>
       </c>
       <c r="E3">
-        <v>-8.9309546350781055</v>
+        <f t="shared" ref="E3:E66" si="1">MAX(0, $C3-3*STDEV($B$2:$B$125))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,16 +6688,19 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D4">
-        <v>20.045240349363819</v>
+        <f t="shared" ref="D4:D67" si="2">$C4+3*STDEV($B$2:$B$125)</f>
+        <v>16.79851482053774</v>
       </c>
       <c r="E4">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3974,16 +6708,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D5">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E5">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3991,16 +6728,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D6">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E6">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4008,16 +6748,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D7">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E7">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,16 +6768,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D8">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E8">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,16 +6788,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D9">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E9">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,16 +6808,19 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D10">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E10">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,16 +6828,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D11">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E11">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,16 +6848,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D12">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E12">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,16 +6868,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>5.5571428571428569</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D13">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E13">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,16 +6888,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D14">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E14">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,16 +6908,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D15">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E15">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4161,16 +6928,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D16">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E16">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4178,16 +6948,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D17">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E17">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,16 +6968,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D18">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E18">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,16 +6988,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D19">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E19">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,16 +7008,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D20">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E20">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,16 +7028,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D21">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E21">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4263,16 +7048,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D22">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E22">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4280,16 +7068,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D23">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E23">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4297,16 +7088,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D24">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E24">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,16 +7108,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D25">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E25">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,16 +7128,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D26">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E26">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4348,16 +7148,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D27">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E27">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,16 +7168,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D28">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E28">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,16 +7188,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D29">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E29">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4399,16 +7208,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D30">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E30">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4416,16 +7228,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D31">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E31">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,16 +7248,19 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D32">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E32">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,16 +7268,19 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D33">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E33">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,16 +7288,19 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D34">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E34">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4484,16 +7308,19 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D35">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E35">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +7328,19 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D36">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E36">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +7348,19 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D37">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E37">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,16 +7368,19 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D38">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E38">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,16 +7388,19 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D39">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E39">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,16 +7408,19 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D40">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E40">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,16 +7428,19 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D41">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E41">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,16 +7448,19 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D42">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E42">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,16 +7468,19 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D43">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E43">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,16 +7488,19 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D44">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E44">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4654,16 +7508,19 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D45">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E45">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,16 +7528,19 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D46">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E46">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,16 +7548,19 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D47">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E47">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,16 +7568,19 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D48">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E48">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4722,16 +7588,19 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D49">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E49">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4739,16 +7608,19 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D50">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E50">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,16 +7628,19 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D51">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E51">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,16 +7648,19 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D52">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E52">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,16 +7668,19 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D53">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E53">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,16 +7688,19 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D54">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E54">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,16 +7708,19 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D55">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E55">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,16 +7728,19 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D56">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E56">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4858,16 +7748,19 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D57">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E57">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,16 +7768,19 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D58">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E58">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,13 +7791,16 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D59">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E59">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,16 +7808,19 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D60">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E60">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4926,16 +7828,19 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D61">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E61">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4943,16 +7848,19 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D62">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E62">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4960,16 +7868,19 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D63">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E63">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,16 +7888,19 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D64">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E64">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4994,16 +7908,19 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D65">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E65">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,16 +7928,19 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="0"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D66">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E66">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,16 +7948,19 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>5.5571428571428596</v>
+        <f t="shared" ref="C67:C125" si="3">AVERAGE($B$2:$B$125)</f>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D67">
-        <v>20.045240349363819</v>
+        <f t="shared" si="2"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E67">
-        <v>-8.9309546350781055</v>
+        <f t="shared" ref="E67:E125" si="4">MAX(0, $C67-3*STDEV($B$2:$B$125))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5045,16 +7968,19 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D68">
-        <v>20.045240349363819</v>
+        <f t="shared" ref="D68:D125" si="5">$C68+3*STDEV($B$2:$B$125)</f>
+        <v>16.79851482053774</v>
       </c>
       <c r="E68">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5062,16 +7988,19 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D69">
-        <v>20.045240349363819</v>
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E69">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5082,13 +8011,16 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D70">
-        <v>20.045240349363819</v>
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E70">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5099,13 +8031,1096 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>5.5571428571428596</v>
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
       </c>
       <c r="D71">
-        <v>20.045240349363819</v>
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
       </c>
       <c r="E71">
-        <v>-8.9309546350781055</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>3.1370967741935485</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>16.79851482053774</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
